--- a/Data/Requests/Requests.xlsx
+++ b/Data/Requests/Requests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an.m\Documents\UiPath\HelpDeskTicketGeneration\Data\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an.m\Documents\UiPath\HelpDeskTicketGeneration\Data\Requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A21D8B-ACE2-46D0-855E-9F78E7CDA122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83676CED-5D2D-4220-A5F7-FDA1D939123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -106,13 +106,16 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>different subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +127,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,10 +159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -454,7 +448,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,13 +459,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -537,7 +531,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -553,7 +547,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -564,6 +566,7 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C378B606-FD7D-4A20-A1CF-005A0E9F9E94}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{978FB30E-5172-4FF4-9E1A-B36B46077EBD}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{64F1F270-8D2E-46A5-A16F-80329E29D20D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{58781C4E-2611-4698-9A5A-C7220761B20C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
